--- a/Example_Data/25SC_s1_results.xlsx
+++ b/Example_Data/25SC_s1_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,23 +1271,6 @@
         <v>-442.6876486876025</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-712.3701301408609</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6.937717326920654</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1341.955232190325</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-2766.695492472047</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
